--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a65a0fe45566a37/Dokumen/Project/anomalydetection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Documents\Project\anomalydetection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{DB39E61E-482F-47D1-B933-D55B4FC0A46D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{68BF6D5E-4448-4CB2-9A47-C2A93CE6061F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F58CAB7-76DD-4060-B47F-82CE9E91DF85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{5D54B663-888C-4963-A129-93C0C3BBF0B0}"/>
+    <workbookView xWindow="9600" yWindow="4215" windowWidth="28800" windowHeight="11385" xr2:uid="{5D54B663-888C-4963-A129-93C0C3BBF0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,8 +108,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -150,7 +153,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -163,12 +166,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:rPr lang="en-US" sz="1800"/>
               <a:t>Experiment Result</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39578225944188944"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -182,7 +193,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -214,7 +225,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Isolation forest</c:v>
+                  <c:v>One-class SVM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -229,6 +240,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$3:$A$5</c:f>
@@ -250,16 +319,16 @@
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.89790000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -279,7 +348,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Random forest</c:v>
+                  <c:v>Isolation forest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -294,6 +363,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$3:$A$5</c:f>
@@ -315,16 +442,16 @@
             <c:numRef>
               <c:f>Sheet1!$C$3:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.27550000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.2727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.99870000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -344,7 +471,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>One-class SVM</c:v>
+                  <c:v>Hybrid Autoencoder</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -359,6 +486,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$3:$A$5</c:f>
@@ -380,16 +565,16 @@
             <c:numRef>
               <c:f>Sheet1!$D$3:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>0.96330000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.92920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -409,7 +594,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hybrid Autoencoder</c:v>
+                  <c:v>Random forest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -424,6 +609,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$3:$A$5</c:f>
@@ -445,13 +688,13 @@
             <c:numRef>
               <c:f>Sheet1!$E$3:$E$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.78</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -489,6 +732,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$3:$A$5</c:f>
@@ -510,10 +811,10 @@
             <c:numRef>
               <c:f>Sheet1!$F$3:$F$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.99</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -531,8 +832,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -572,7 +874,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -616,7 +918,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -632,7 +934,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -674,7 +976,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -714,7 +1016,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200" b="1"/>
       </a:pPr>
       <a:endParaRPr lang="ko-KR"/>
     </a:p>
@@ -1280,10 +1582,10 @@
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>449171</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1610,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD4890C-EDB9-4440-8EF6-CF8F5A0D0A48}">
   <dimension ref="A2:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1621,16 +1923,16 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -1640,39 +1942,39 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>0.25</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.27550000000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>0.03</v>
-      </c>
-      <c r="E3">
-        <v>0.78</v>
-      </c>
-      <c r="F3">
-        <v>0.99</v>
+      <c r="F3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>0.26</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="1">
+        <v>0.2727</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>0.7</v>
-      </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1680,19 +1982,19 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>0.9</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
     </row>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Documents\Project\anomalydetection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F58CAB7-76DD-4060-B47F-82CE9E91DF85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CCDA9A-4773-41F1-BF9B-9A2F7ED7DA23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="4215" windowWidth="28800" windowHeight="11385" xr2:uid="{5D54B663-888C-4963-A129-93C0C3BBF0B0}"/>
+    <workbookView xWindow="14310" yWindow="3645" windowWidth="28800" windowHeight="11385" xr2:uid="{5D54B663-888C-4963-A129-93C0C3BBF0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>F1-score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,11 +57,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hybrid Autoencoder</t>
+    <t>TNR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TNR</t>
+    <t>Encoder + LR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autoencoder + LR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +157,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -166,7 +170,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800"/>
+              <a:rPr lang="en-US"/>
               <a:t>Experiment Result</a:t>
             </a:r>
           </a:p>
@@ -193,7 +197,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -249,13 +253,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -322,20 +324,20 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.3000000000000002E-2</c:v>
+                  <c:v>0.73913043</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.85858586000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89790000000000003</c:v>
+                  <c:v>0.94808126000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5B1F-4FD4-A9EE-33639228B4E3}"/>
+              <c16:uniqueId val="{00000001-9F42-412E-9D72-350E463E3E23}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -372,13 +374,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -445,20 +445,20 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.27550000000000002</c:v>
+                  <c:v>0.73913043</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2727</c:v>
+                  <c:v>0.85858586000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99870000000000003</c:v>
+                  <c:v>0.94808126000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5B1F-4FD4-A9EE-33639228B4E3}"/>
+              <c16:uniqueId val="{00000002-9F42-412E-9D72-350E463E3E23}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -471,7 +471,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hybrid Autoencoder</c:v>
+                  <c:v>Random forest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -495,13 +495,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -568,20 +566,20 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.96330000000000005</c:v>
+                  <c:v>0.93048127999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92920000000000003</c:v>
+                  <c:v>0.87878787999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.99887132999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5B1F-4FD4-A9EE-33639228B4E3}"/>
+              <c16:uniqueId val="{00000003-9F42-412E-9D72-350E463E3E23}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -594,7 +592,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Random forest</c:v>
+                  <c:v>One-class Autoencoder</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -618,13 +616,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -691,20 +687,20 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.90625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.87878787999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.99322798999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5B1F-4FD4-A9EE-33639228B4E3}"/>
+              <c16:uniqueId val="{00000004-9F42-412E-9D72-350E463E3E23}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -717,7 +713,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>One-class Autoencoder</c:v>
+                  <c:v>Encoder + LR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -741,13 +737,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -814,20 +808,141 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.93048127999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.87878787999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.99887132999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5B1F-4FD4-A9EE-33639228B4E3}"/>
+              <c16:uniqueId val="{00000005-9F42-412E-9D72-350E463E3E23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Autoencoder + LR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>F1-score</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TPR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TNR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.91803279000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84848484999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9F42-412E-9D72-350E463E3E23}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -874,7 +989,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -934,7 +1049,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -976,7 +1091,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1016,7 +1131,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200" b="1"/>
+        <a:defRPr sz="1400" b="1"/>
       </a:pPr>
       <a:endParaRPr lang="ko-KR"/>
     </a:p>
@@ -1577,15 +1692,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>585786</xdr:colOff>
+      <xdr:colOff>585787</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>449171</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638736</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>212911</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1910,18 +2025,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD4890C-EDB9-4440-8EF6-CF8F5A0D0A48}">
-  <dimension ref="A2:F5"/>
+  <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1929,72 +2049,84 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>0.73913043</v>
       </c>
       <c r="C3" s="1">
-        <v>0.27550000000000002</v>
+        <v>0.73913043</v>
       </c>
       <c r="D3" s="1">
-        <v>0.96330000000000005</v>
+        <v>0.93048127999999997</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0.90625</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0.93048127999999997</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.91803279000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0.85858586000000003</v>
       </c>
       <c r="C4" s="1">
-        <v>0.2727</v>
+        <v>0.85858586000000003</v>
       </c>
       <c r="D4" s="1">
-        <v>0.92920000000000003</v>
+        <v>0.87878787999999997</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0.87878787999999997</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0.87878787999999997</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.84848484999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>0.89790000000000003</v>
+        <v>0.94808126000000004</v>
       </c>
       <c r="C5" s="1">
-        <v>0.99870000000000003</v>
+        <v>0.94808126000000004</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0.99887132999999995</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0.99322798999999995</v>
       </c>
       <c r="F5" s="1">
+        <v>0.99887132999999995</v>
+      </c>
+      <c r="G5" s="1">
         <v>1</v>
       </c>
     </row>
